--- a/biology/Zoologie/Doraemon__Nobita_to_ryū_no_kishi/Doraemon__Nobita_to_ryū_no_kishi.xlsx
+++ b/biology/Zoologie/Doraemon__Nobita_to_ryū_no_kishi/Doraemon__Nobita_to_ryū_no_kishi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Doraemon:_Nobita_to_ry%C5%AB_no_kishi</t>
+          <t>Doraemon:_Nobita_to_ryū_no_kishi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doraemon: Nobita to ryū no kishi (ドラえもん のび太と竜の騎士) est un film japonais réalisé par Tsutomu Shibayama, sorti en 1987.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Doraemon:_Nobita_to_ry%C5%AB_no_kishi</t>
+          <t>Doraemon:_Nobita_to_ryū_no_kishi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nobita soutient que les dinosaures existent toujours, ce que Gian, Suneo et Shizuka ne croient pas. Il demande de l'aide à Doraemon pour prouver ses dires.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Doraemon:_Nobita_to_ry%C5%AB_no_kishi</t>
+          <t>Doraemon:_Nobita_to_ryū_no_kishi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Doraemon: Nobita to ryū no kishi
 Titre original : ドラえもん のび太と竜の騎士
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Doraemon:_Nobita_to_ry%C5%AB_no_kishi</t>
+          <t>Doraemon:_Nobita_to_ryū_no_kishi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Doublage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nobuyo Ōyama : Doraemon
 Noriko Ohara : Nobita Nobi
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Doraemon:_Nobita_to_ry%C5%AB_no_kishi</t>
+          <t>Doraemon:_Nobita_to_ryū_no_kishi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,9 +636,11 @@
           <t>Box-office</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a rapporté 23,4 millions de dollars au box-office[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a rapporté 23,4 millions de dollars au box-office.
 </t>
         </is>
       </c>
